--- a/Technical-Documentation/data-dictionary.xlsx
+++ b/Technical-Documentation/data-dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnadi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveswinburneeduau.sharepoint.com/sites/APG-SwinburnePaveSWDProject-4/Shared Documents/General/Assessment-Task-4-Group-Submission/8. Handover Documentation/Technical Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FF0E1F-00E6-4DFF-9E4C-901C9BA50EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1094" documentId="11_4B5B039F9372F38A481271A07438DD3E7281F562" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EA3D73-B700-4A51-846C-957A9035A730}"/>
   <bookViews>
-    <workbookView xWindow="38385" yWindow="0" windowWidth="19215" windowHeight="15600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="275">
   <si>
     <t>EdAble Data Dictionary</t>
   </si>
@@ -544,6 +544,9 @@
     <t>A boolean value showing if the donation amount has been refunded or not</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Collection</t>
   </si>
   <si>
@@ -694,39 +697,27 @@
     <t>A true or false value if true the donor can be contacted if false the donor cannot be contacted</t>
   </si>
   <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>Where did the donor hear of the organisation</t>
+    <t>whether the donor wants their name to be publicly displayed on the donation</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>The Name of the donor</t>
+  </si>
+  <si>
+    <t>How Heared</t>
+  </si>
+  <si>
+    <t>howHeard</t>
+  </si>
+  <si>
+    <t>How did the donor hear of Edable was it through social meadia ect</t>
   </si>
   <si>
     <t>Facebook</t>
   </si>
   <si>
-    <t>whether the donor wants their name to be publicly displayed on the donation</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>The Name of the donor</t>
-  </si>
-  <si>
-    <t>0422364589</t>
-  </si>
-  <si>
-    <t>How Heared</t>
-  </si>
-  <si>
-    <t>howHeard</t>
-  </si>
-  <si>
-    <t>How did the donor hear of Edable was it through social meadia ect</t>
-  </si>
-  <si>
     <t>How Heared Other</t>
   </si>
   <si>
@@ -757,6 +748,9 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>If true the volunteer is free that day of the week</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -775,124 +769,127 @@
     <t>Sunday</t>
   </si>
   <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>The Skills that the volunteer has</t>
+  </si>
+  <si>
+    <t>I am skilled in Web Development</t>
+  </si>
+  <si>
+    <t>How to Contribute</t>
+  </si>
+  <si>
     <t>howContribute</t>
   </si>
   <si>
+    <t>How does the volunteer want to donate their time</t>
+  </si>
+  <si>
+    <t>Baking</t>
+  </si>
+  <si>
+    <t>Volunteer Amount</t>
+  </si>
+  <si>
     <t>volunteerAmount</t>
   </si>
   <si>
+    <t>If an organisation's employees are volunteering the number of volunteers</t>
+  </si>
+  <si>
+    <t>Volunteer Comment</t>
+  </si>
+  <si>
     <t>volunteerComment</t>
   </si>
   <si>
+    <t>Any comments the volunteer wants to make</t>
+  </si>
+  <si>
+    <t>I use to be a baker and can offer my experience</t>
+  </si>
+  <si>
+    <t>Volunteer Date Of Birth</t>
+  </si>
+  <si>
     <t>volunteerDOB</t>
   </si>
   <si>
+    <t>The Volunteers date of birth</t>
+  </si>
+  <si>
+    <t>Volunteer Email</t>
+  </si>
+  <si>
     <t>volunteerEmail</t>
   </si>
   <si>
+    <t>The volunteers email address</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>Volunteer Hours</t>
+  </si>
+  <si>
     <t>volunteerHours</t>
   </si>
   <si>
+    <t>The number of volunteering hours the volunteer wants to contribute</t>
+  </si>
+  <si>
+    <t>Volunteer How Heard</t>
+  </si>
+  <si>
     <t>volunteerHowHeard</t>
   </si>
   <si>
+    <t>Volunteer How Heard Other</t>
+  </si>
+  <si>
     <t>volunteerHowHeardOther</t>
   </si>
   <si>
+    <t>Volunteer Name</t>
+  </si>
+  <si>
     <t>volunteerName</t>
   </si>
   <si>
+    <t>The name of the volunteer</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Volunteer Org Name</t>
+  </si>
+  <si>
     <t>volunteerOrgName</t>
   </si>
   <si>
+    <t>If the volunteer group is an organisation the name of the organisation</t>
+  </si>
+  <si>
+    <t>Barry's Bake House</t>
+  </si>
+  <si>
+    <t>Volunteer Phone</t>
+  </si>
+  <si>
     <t>volunteerPhone</t>
   </si>
   <si>
+    <t>The phone number of the volunteer</t>
+  </si>
+  <si>
+    <t>Volunteer Postcode</t>
+  </si>
+  <si>
     <t>volunteerPostcode</t>
-  </si>
-  <si>
-    <t>How to Contribute</t>
-  </si>
-  <si>
-    <t>Volunteer Amount</t>
-  </si>
-  <si>
-    <t>Volunteer Comment</t>
-  </si>
-  <si>
-    <t>Volunteer Date Of Birth</t>
-  </si>
-  <si>
-    <t>Volunteer Email</t>
-  </si>
-  <si>
-    <t>Volunteer Hours</t>
-  </si>
-  <si>
-    <t>Volunteer How Heard</t>
-  </si>
-  <si>
-    <t>Volunteer How Heard Other</t>
-  </si>
-  <si>
-    <t>Volunteer Name</t>
-  </si>
-  <si>
-    <t>Volunteer Org Name</t>
-  </si>
-  <si>
-    <t>Volunteer Phone</t>
-  </si>
-  <si>
-    <t>Volunteer Postcode</t>
-  </si>
-  <si>
-    <t>How does the volunteer want to donate their time</t>
-  </si>
-  <si>
-    <t>If true the volunteer is free that day of the week</t>
-  </si>
-  <si>
-    <t>Baking</t>
-  </si>
-  <si>
-    <t>If an organisation's employees are volunteering the number of volunteers</t>
-  </si>
-  <si>
-    <t>Any comments the volunteer wants to make</t>
-  </si>
-  <si>
-    <t>I use to be a baker and can offer my experience</t>
-  </si>
-  <si>
-    <t>The Volunteers date of birth</t>
-  </si>
-  <si>
-    <t>The volunteers email address</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>The number of volunteering hours the volunteer wants to contribute</t>
-  </si>
-  <si>
-    <t>The name of the volunteer</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>If the volunteer group is an organisation the name of the organisation</t>
-  </si>
-  <si>
-    <t>Barry's Bake House</t>
-  </si>
-  <si>
-    <t>The phone number of the volunteer</t>
-  </si>
-  <si>
-    <t>042341517890</t>
   </si>
   <si>
     <t>The postcode of the volunteer</t>
@@ -902,10 +899,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,8 +935,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,8 +974,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1041,29 +1054,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1085,20 +1078,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1106,7 +1088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1165,6 +1147,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,74 +1184,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1610,30 +1545,30 @@
       <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" customWidth="1"/>
-    <col min="8" max="8" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="50.26953125" customWidth="1"/>
+    <col min="8" max="8" width="56.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1659,8 +1594,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1685,8 +1620,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1705,8 +1640,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1727,8 +1662,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1684,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1773,8 +1708,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1795,8 +1730,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
@@ -1817,8 +1752,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
@@ -1839,8 +1774,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1861,7 +1796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>52</v>
@@ -1883,7 +1818,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>56</v>
@@ -1903,7 +1838,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>59</v>
@@ -1927,7 +1862,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>65</v>
@@ -1951,8 +1886,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1975,8 +1910,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
@@ -1997,8 +1932,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
       <c r="B18" s="5" t="s">
         <v>75</v>
       </c>
@@ -2019,8 +1954,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A19" s="32"/>
       <c r="B19" s="4" t="s">
         <v>78</v>
       </c>
@@ -2041,8 +1976,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="32"/>
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
@@ -2063,8 +1998,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
@@ -2085,8 +2020,8 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2105,8 +2040,8 @@
         <v>90.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="32"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
@@ -2129,8 +2064,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
       <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
@@ -2151,8 +2086,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="32"/>
       <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
@@ -2173,8 +2108,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
@@ -2195,8 +2130,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2219,8 +2154,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
       <c r="B28" s="7" t="s">
         <v>103</v>
       </c>
@@ -2241,8 +2176,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
@@ -2263,8 +2198,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
       <c r="B30" s="6" t="s">
         <v>106</v>
       </c>
@@ -2287,8 +2222,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
       <c r="B31" s="7" t="s">
         <v>109</v>
       </c>
@@ -2309,8 +2244,8 @@
         <v>253.33</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
       <c r="B32" s="6" t="s">
         <v>114</v>
       </c>
@@ -2332,8 +2267,8 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2356,8 +2291,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
       <c r="B34" s="6" t="s">
         <v>118</v>
       </c>
@@ -2378,8 +2313,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
       <c r="B35" s="6" t="s">
         <v>122</v>
       </c>
@@ -2400,8 +2335,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="33"/>
       <c r="B36" s="7" t="s">
         <v>126</v>
       </c>
@@ -2422,8 +2357,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
       <c r="B37" s="6" t="s">
         <v>130</v>
       </c>
@@ -2444,8 +2379,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="33"/>
       <c r="B38" s="7" t="s">
         <v>134</v>
       </c>
@@ -2468,8 +2403,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
       <c r="B39" s="6" t="s">
         <v>137</v>
       </c>
@@ -2492,8 +2427,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2516,8 +2451,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
       <c r="B41" s="6" t="s">
         <v>70</v>
       </c>
@@ -2538,8 +2473,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
       <c r="B42" s="7" t="s">
         <v>103</v>
       </c>
@@ -2560,8 +2495,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
       <c r="B43" s="6" t="s">
         <v>146</v>
       </c>
@@ -2582,8 +2517,8 @@
         <v>90.12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="28"/>
       <c r="B44" s="7" t="s">
         <v>114</v>
       </c>
@@ -2606,8 +2541,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
       <c r="B45" s="6" t="s">
         <v>106</v>
       </c>
@@ -2630,8 +2565,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
       <c r="B46" s="8" t="s">
         <v>151</v>
       </c>
@@ -2684,31 +2619,31 @@
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="62.453125" customWidth="1"/>
+    <col min="8" max="8" width="43.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2734,8 +2669,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2760,8 +2695,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -2778,8 +2713,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -2800,8 +2735,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -2821,8 +2756,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
       <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
@@ -2845,8 +2780,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -2866,8 +2801,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
       <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
@@ -2888,8 +2823,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -2909,8 +2844,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="36"/>
       <c r="B11" s="19" t="s">
         <v>48</v>
       </c>
@@ -2931,8 +2866,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="36"/>
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -2953,8 +2888,8 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="36"/>
       <c r="B13" s="19" t="s">
         <v>56</v>
       </c>
@@ -2973,8 +2908,8 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -2997,8 +2932,8 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="36"/>
       <c r="B15" s="19" t="s">
         <v>65</v>
       </c>
@@ -3021,8 +2956,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B16" t="s">
@@ -3044,8 +2979,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
       <c r="B17" s="19" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3001,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>75</v>
       </c>
@@ -3087,8 +3022,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38"/>
       <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
@@ -3109,8 +3044,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="38"/>
       <c r="B20" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3065,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="38"/>
       <c r="B21" s="19" t="s">
         <v>83</v>
       </c>
@@ -3152,8 +3087,8 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="38"/>
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -3170,8 +3105,8 @@
         <v>90.12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="38"/>
       <c r="B23" s="19" t="s">
         <v>52</v>
       </c>
@@ -3194,8 +3129,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="38"/>
       <c r="B24" t="s">
         <v>92</v>
       </c>
@@ -3215,8 +3150,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="38"/>
       <c r="B25" s="19" t="s">
         <v>95</v>
       </c>
@@ -3237,8 +3172,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="38"/>
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -3258,8 +3193,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -3282,8 +3217,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -3303,8 +3238,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
       <c r="B29" s="19" t="s">
         <v>10</v>
       </c>
@@ -3325,8 +3260,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
       <c r="B30" t="s">
         <v>106</v>
       </c>
@@ -3349,8 +3284,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
       <c r="B31" s="19" t="s">
         <v>109</v>
       </c>
@@ -3371,8 +3306,8 @@
         <v>253.33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
       <c r="B32" t="s">
         <v>155</v>
       </c>
@@ -3395,8 +3330,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
       <c r="B33" s="19" t="s">
         <v>114</v>
       </c>
@@ -3417,8 +3352,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="38" t="s">
         <v>116</v>
       </c>
       <c r="B34" t="s">
@@ -3440,8 +3375,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="38"/>
       <c r="B35" s="19" t="s">
         <v>118</v>
       </c>
@@ -3462,8 +3397,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="38"/>
       <c r="B36" t="s">
         <v>122</v>
       </c>
@@ -3483,8 +3418,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="38"/>
       <c r="B37" s="19" t="s">
         <v>126</v>
       </c>
@@ -3505,8 +3440,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="38"/>
       <c r="B38" t="s">
         <v>130</v>
       </c>
@@ -3526,8 +3461,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="38"/>
       <c r="B39" s="19" t="s">
         <v>134</v>
       </c>
@@ -3550,8 +3485,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="38"/>
       <c r="B40" t="s">
         <v>137</v>
       </c>
@@ -3574,8 +3509,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -3598,8 +3533,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
       <c r="B42" t="s">
         <v>70</v>
       </c>
@@ -3619,8 +3554,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
       <c r="B43" s="19" t="s">
         <v>103</v>
       </c>
@@ -3641,8 +3576,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="30"/>
       <c r="B44" t="s">
         <v>146</v>
       </c>
@@ -3662,8 +3597,8 @@
         <v>90.12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="30"/>
       <c r="B45" s="19" t="s">
         <v>114</v>
       </c>
@@ -3686,8 +3621,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="30"/>
       <c r="B46" t="s">
         <v>106</v>
       </c>
@@ -3710,8 +3645,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="30"/>
       <c r="B47" s="19" t="s">
         <v>155</v>
       </c>
@@ -3734,8 +3669,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="34"/>
       <c r="B48" s="23" t="s">
         <v>151</v>
       </c>
@@ -3780,1630 +3715,1781 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5EC1B2-BFB3-45F1-B2B5-F34FA379E675}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="B1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="D4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="41" t="s">
+        <v>158</v>
+      </c>
       <c r="H4" s="41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
+      <c r="D6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="41" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="D8" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="41" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
+      <c r="D9" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
+      <c r="D10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="41" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
+      <c r="D11" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
+      <c r="E13" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
-      <c r="B14" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>161</v>
+      <c r="G14" s="41" t="s">
+        <v>162</v>
       </c>
       <c r="H14" s="41">
         <v>2300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
-      <c r="B15" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>165</v>
+      <c r="G15" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="H15" s="41">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
-      <c r="B16" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>168</v>
+      <c r="G16" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="H16" s="41">
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
-      <c r="B17" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="G17" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="41">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="41">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="43">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="43">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="45" t="s">
+      <c r="D27" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="46">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="G27" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="43">
+        <v>90.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="35" t="s">
+      <c r="D32" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="39">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="39">
-        <v>90.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35" t="s">
+      <c r="F32" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="41" t="s">
         <v>102</v>
       </c>
       <c r="H32" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="38" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39" t="s">
+      <c r="C33" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="D33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="G33" s="41" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="35" t="s">
+      <c r="H33" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="35" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35" t="s">
+      <c r="E34" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="35" t="s">
-        <v>188</v>
+      <c r="G34" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="H34" s="41">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="38" t="s">
+      <c r="H35" s="41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="G36" s="38" t="s">
+      <c r="F36" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="38" t="s">
+      <c r="G36" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="H36" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="38" t="s">
+      <c r="F37" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="G37" s="41" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="35" t="s">
+      <c r="H37" s="41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35" t="s">
+      <c r="E38" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="41" t="s">
         <v>90</v>
       </c>
       <c r="H38" s="41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39" t="s">
+      <c r="C39" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="D39" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="G39" s="42" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="38" t="s">
+      <c r="H39" s="42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="44"/>
+      <c r="B40" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38" t="s">
+      <c r="F40" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="42">
         <v>90.12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="35" t="s">
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="44"/>
+      <c r="B41" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="35" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="44"/>
+      <c r="B42" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="35" t="s">
+      <c r="H42" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="44"/>
+      <c r="B43" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="41" t="s">
+      <c r="C43" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="H43" s="41"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="G43" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="H43" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="35"/>
+      <c r="D44" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>158</v>
+      </c>
       <c r="F44" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="55" t="s">
+      <c r="G44" s="41" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="35" t="s">
+      <c r="H44" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="35" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="35"/>
+      <c r="D45" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>158</v>
+      </c>
       <c r="F45" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>204</v>
+      <c r="G45" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35" t="s">
+      <c r="D46" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H46" s="56" t="s">
+      <c r="G46" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="41">
+        <v>422364589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="41" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="35" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E53" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="H47" s="35"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="35" t="s">
+      <c r="F53" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H53" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="44"/>
+      <c r="B54" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="41" t="s">
+      <c r="E54" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="44"/>
+      <c r="B55" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H55" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="44"/>
+      <c r="B56" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="44"/>
+      <c r="B57" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H57" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="44"/>
+      <c r="B58" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="44"/>
+      <c r="B59" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H59" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="44"/>
+      <c r="B60" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G60" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="44"/>
+      <c r="B61" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="44"/>
+      <c r="B62" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H62" s="42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="44"/>
+      <c r="B63" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="44"/>
+      <c r="B64" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="H64" s="42">
+        <v>34262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="44"/>
+      <c r="B65" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="44"/>
+      <c r="B66" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" s="42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="44"/>
+      <c r="B67" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="H50" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35" t="s">
+      <c r="H67" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="44"/>
+      <c r="B68" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="H51" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="35" t="s">
+      <c r="H68" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H54" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H55" s="59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H56" s="59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H57" s="59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H58" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H59" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="H60" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="H61" s="58" t="s">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="44"/>
+      <c r="B69" s="42" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="58" t="s">
+      <c r="C69" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="H62" s="41">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="58" t="s">
+      <c r="D69" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="H63" s="58" t="s">
+      <c r="H69" s="42" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="58" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="44"/>
+      <c r="B70" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="H64" s="60">
-        <v>34262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="58" t="s">
+      <c r="C70" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="H65" s="55" t="s">
+      <c r="D70" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="58" t="s">
+      <c r="H70" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="H66" s="41">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="H67" s="58" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="58" t="s">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="44"/>
+      <c r="B71" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="H69" s="58" t="s">
+      <c r="C71" s="42" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="58" t="s">
+      <c r="D71" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="H70" s="58" t="s">
+      <c r="H71" s="42">
+        <v>42341517890</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="44"/>
+      <c r="B72" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="58" t="s">
+      <c r="C72" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="H71" s="61" t="s">
+      <c r="D72" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="H72" s="41">
+      <c r="H72" s="42">
         <v>3138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A54:A72"/>
+    <mergeCell ref="A53:A72"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A44:A52"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H25" r:id="rId1" display="https://www.edable/logo-img.png" xr:uid="{009C5407-044E-48C6-8A5B-22F58B181DC0}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{EFCBA167-F2EE-4047-A78D-65CBE7270697}"/>
-    <hyperlink ref="H10" r:id="rId3" display="https://www.edable.com.au" xr:uid="{36DB63FC-F932-4267-B780-38C6956AC53B}"/>
-    <hyperlink ref="H44" r:id="rId4" xr:uid="{C0AFCE0B-908A-4E76-A6AB-6E64F829B35C}"/>
-    <hyperlink ref="H65" r:id="rId5" xr:uid="{85147BA9-0402-45F6-87A2-2E461D0BBCA6}"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{5A842259-A817-4990-9444-E68D49EAADE3}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{1C316DCE-B630-427B-BDAF-EB1ED5B00175}"/>
+    <hyperlink ref="H25" r:id="rId3" xr:uid="{6769DE80-4847-4ADC-B604-9A1970D7AD26}"/>
+    <hyperlink ref="H44" r:id="rId4" xr:uid="{89B8D3C7-5E67-4D2F-8C2D-2694E73CCB8B}"/>
+    <hyperlink ref="H65" r:id="rId5" xr:uid="{F037C788-3859-4FE0-82A9-4FDC16F698C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -5411,6 +5497,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C5A588E9ECF3441AC7A6B01309EB265" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87186ce3118b3dc0e6ac19ccafedcb09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2443094-1f95-4f70-9e27-b00b9fea48bf" xmlns:ns3="a99748a9-7be7-4bd9-a614-a1485d149e80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d5fe326cf804b92add219d4f5cf4a81" ns2:_="" ns3:_="">
     <xsd:import namespace="a2443094-1f95-4f70-9e27-b00b9fea48bf"/>
@@ -5653,7 +5748,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a99748a9-7be7-4bd9-a614-a1485d149e80" xsi:nil="true"/>
@@ -5664,16 +5759,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033577D4-A431-48A1-9244-54F6F6B67461}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0435DE08-5F63-419B-AB51-70D66A66448D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5692,27 +5786,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E255F65-3C4F-4D35-AB2F-9743ED44135E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a2443094-1f95-4f70-9e27-b00b9fea48bf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a99748a9-7be7-4bd9-a614-a1485d149e80"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a99748a9-7be7-4bd9-a614-a1485d149e80"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a2443094-1f95-4f70-9e27-b00b9fea48bf"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033577D4-A431-48A1-9244-54F6F6B67461}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>